--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raint\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Competition\ACM_ICPC\Practice\TrainRoom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -151,13 +151,17 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,7 +504,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,6 +752,9 @@
       </c>
       <c r="D27" t="s">
         <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">

--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="38">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -156,6 +156,16 @@
   <si>
     <t>sbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbn</t>
+  </si>
+  <si>
+    <t>sbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lrt</t>
   </si>
 </sst>
 </file>
@@ -503,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -840,6 +850,9 @@
       </c>
       <c r="D37" t="s">
         <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">

--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -159,13 +159,11 @@
   </si>
   <si>
     <t>sbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lrt</t>
   </si>
 </sst>
 </file>
@@ -513,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -587,6 +585,9 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -852,7 +853,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">

--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -511,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -631,6 +635,9 @@
       </c>
       <c r="D11" t="s">
         <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">

--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -515,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,6 +953,9 @@
       </c>
       <c r="D46" t="s">
         <v>16</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/9月比赛补题日志.xlsx
+++ b/9月比赛补题日志.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>2016-2017 CT S03E02: Codeforces Trainings Season 3 Episode 2</t>
   </si>
@@ -171,6 +171,26 @@
   </si>
   <si>
     <t>sbn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最短路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角剖分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态树上点对距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价表达式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数论概率dp?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,6 +610,9 @@
       <c r="B6">
         <v>32</v>
       </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -874,6 +897,9 @@
       <c r="B38">
         <v>48</v>
       </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
@@ -885,6 +911,9 @@
       <c r="B39">
         <v>64</v>
       </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
@@ -896,6 +925,9 @@
       <c r="B40">
         <v>59</v>
       </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
       <c r="D40" t="s">
         <v>9</v>
       </c>
@@ -950,6 +982,9 @@
       </c>
       <c r="B46">
         <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
